--- a/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
+++ b/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamni\git\repository\SeleniumFramework_TMB\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06BA13-609C-418A-9080-79E497BB4128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCAF1A-5244-4E2A-9DE8-03B219148DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>testname</t>
   </si>
@@ -58,13 +59,40 @@
   </si>
   <si>
     <t>To check whether this test is executed</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>amuthan</t>
+  </si>
+  <si>
+    <t>testing mini bytes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>subscribe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -476,4 +511,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792598D-667B-416E-8048-C9C5852B7203}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
+++ b/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamni\git\repository\SeleniumFramework_TMB\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCAF1A-5244-4E2A-9DE8-03B219148DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B82C7-6585-4A6E-8AD5-8B44AB84171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>testname</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>subscribe</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -515,22 +524,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792598D-667B-416E-8048-C9C5852B7203}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.9296875" customWidth="1"/>
     <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,16 +548,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -555,50 +568,59 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,29 +628,35 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
+++ b/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamni\git\repository\SeleniumFramework_TMB\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B82C7-6585-4A6E-8AD5-8B44AB84171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53820560-9820-41F9-9727-6CE52D78BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>testname</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>amazonTest</t>
+  </si>
+  <si>
+    <t>To check whether the amazon test is working or not</t>
+  </si>
+  <si>
+    <t>menutext</t>
+  </si>
+  <si>
+    <t>Laptops</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -513,6 +525,23 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -524,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792598D-667B-416E-8048-C9C5852B7203}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -538,9 +567,10 @@
     <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,8 +589,11 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -579,8 +612,11 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,8 +635,11 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,8 +658,11 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,8 +681,11 @@
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,6 +703,32 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
+++ b/SeleniumFramework_TMB/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamni\git\repository\SeleniumFramework_TMB\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53820560-9820-41F9-9727-6CE52D78BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11895EE8-0468-4BF8-854E-706984B0AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,43 +70,43 @@
     <t>fname</t>
   </si>
   <si>
+    <t>amuthan</t>
+  </si>
+  <si>
+    <t>testing mini bytes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>amazonTest</t>
+  </si>
+  <si>
+    <t>To check whether the amazon test is working or not</t>
+  </si>
+  <si>
+    <t>menutext</t>
+  </si>
+  <si>
+    <t>Laptops</t>
+  </si>
+  <si>
+    <t>YWRtaW4xMjM=</t>
+  </si>
+  <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>amuthan</t>
-  </si>
-  <si>
-    <t>testing mini bytes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>subscribe</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>amazonTest</t>
-  </si>
-  <si>
-    <t>To check whether the amazon test is working or not</t>
-  </si>
-  <si>
-    <t>menutext</t>
-  </si>
-  <si>
-    <t>Laptops</t>
   </si>
 </sst>
 </file>
@@ -530,10 +530,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -556,7 +556,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -564,10 +564,9 @@
     <col min="1" max="1" width="13.9296875" customWidth="1"/>
     <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -578,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -590,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -601,19 +600,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -624,19 +623,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -647,19 +646,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -670,19 +669,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -693,42 +692,42 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
